--- a/Documentation/Requirements and Wishes.xlsx
+++ b/Documentation/Requirements and Wishes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Requirements</t>
   </si>
@@ -99,14 +99,25 @@
   </si>
   <si>
     <t>Wthe project group has to be better than the other group.</t>
+  </si>
+  <si>
+    <t>The Turtlebot's max payload is 5kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,8 +145,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -452,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +474,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -551,8 +563,13 @@
         <v>17</v>
       </c>
     </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -588,5 +605,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Requirements and Wishes.xlsx
+++ b/Documentation/Requirements and Wishes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radel\Documents\GitHub\MinorAR_MultiRobot\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remco\Documents\MinorAR_MultiRobot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Requirements</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>The Turtlebot's max payload is 5kg</t>
+  </si>
+  <si>
+    <t>The maximum load to be moved will be +/- 2 kg</t>
   </si>
 </sst>
 </file>
@@ -462,144 +465,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B28"/>
+  <dimension ref="B2:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Documentation/Requirements and Wishes.xlsx
+++ b/Documentation/Requirements and Wishes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remco\Documents\MinorAR_MultiRobot\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -29,82 +29,82 @@
     <t>Requirements</t>
   </si>
   <si>
-    <t>Passing objects between robots in simulation</t>
-  </si>
-  <si>
-    <t>Products have to be transported in the most efficient time</t>
-  </si>
-  <si>
-    <t>Robots have to operate using swarm behaviour</t>
-  </si>
-  <si>
-    <t>Product transfer has to be more efficient than re-routing the robot</t>
-  </si>
-  <si>
-    <t>Robot has to have the possibility to transport objects</t>
-  </si>
-  <si>
-    <t>Robot has to be subject to a risk analysis</t>
-  </si>
-  <si>
-    <t>There has to be a structured docking/charging sequence</t>
-  </si>
-  <si>
-    <t>The products are able to be transported with 0.7m/s</t>
-  </si>
-  <si>
-    <t>The project has to use the scrum method</t>
-  </si>
-  <si>
-    <t>The robots have to be able to autonomously dock/charge</t>
-  </si>
-  <si>
-    <t>The robots have to be able to map the environment</t>
-  </si>
-  <si>
-    <t>The robots have to be able to avoid obstacles</t>
-  </si>
-  <si>
-    <t>The swarm has to share data between robots</t>
-  </si>
-  <si>
-    <t>The swarm has to have specialised robots for specific tasks</t>
-  </si>
-  <si>
-    <t>The documentation in this project have to be written in the english language</t>
-  </si>
-  <si>
-    <t>The project is documented on github</t>
-  </si>
-  <si>
-    <t>The standard parts of the Turtlebots are not to be tampered with</t>
-  </si>
-  <si>
     <t>Wishes</t>
   </si>
   <si>
-    <t>Transfering physical objects between robots</t>
-  </si>
-  <si>
-    <t>The robot and it's systems have to comply with ISO-norms</t>
-  </si>
-  <si>
-    <t>The robot has to load and unload objects</t>
-  </si>
-  <si>
-    <t>The swarm behaviour has to be based on ants and/or bees</t>
-  </si>
-  <si>
-    <t>Physical objects cannot fall from the robot.</t>
-  </si>
-  <si>
-    <t>Wthe project group has to be better than the other group.</t>
-  </si>
-  <si>
-    <t>The Turtlebot's max payload is 5kg</t>
-  </si>
-  <si>
-    <t>The maximum load to be moved will be +/- 2 kg</t>
+    <t>The project group has to be better than the other group.</t>
+  </si>
+  <si>
+    <t>The swarm behaviour has to be based on ants and/or bees.</t>
+  </si>
+  <si>
+    <t>The robot has to load and unload objects.</t>
+  </si>
+  <si>
+    <t>The robot and it's systems have to comply with ISO-norms.</t>
+  </si>
+  <si>
+    <t>Transfering physical objects between robots.</t>
+  </si>
+  <si>
+    <t>The maximum load to be moved will be +/- 2 kg.</t>
+  </si>
+  <si>
+    <t>The Turtlebot's max payload is 5kg.</t>
+  </si>
+  <si>
+    <t>The standard parts of the Turtlebots are not to be tampered with.</t>
+  </si>
+  <si>
+    <t>The project is documented on github.</t>
+  </si>
+  <si>
+    <t>The documentation in this project have to be written in the english language.</t>
+  </si>
+  <si>
+    <t>The swarm has to have specialised robots for specific tasks.</t>
+  </si>
+  <si>
+    <t>The swarm has to share data between robots.</t>
+  </si>
+  <si>
+    <t>The robots have to be able to avoid obstacles.</t>
+  </si>
+  <si>
+    <t>The robots have to be able to map the environment.</t>
+  </si>
+  <si>
+    <t>The robots have to be able to autonomously dock/charge.</t>
+  </si>
+  <si>
+    <t>The project has to use the scrum method.</t>
+  </si>
+  <si>
+    <t>The products are able to be transported with 0.7m/s.</t>
+  </si>
+  <si>
+    <t>There has to be a structured docking/charging sequence.</t>
+  </si>
+  <si>
+    <t>Robot has to be subject to a risk analysis.</t>
+  </si>
+  <si>
+    <t>Robot has to have the possibility to transport objects.</t>
+  </si>
+  <si>
+    <t>Product transfer has to be more efficient than re-routing the robot.</t>
+  </si>
+  <si>
+    <t>Robots have to operate using swarm behaviour.</t>
+  </si>
+  <si>
+    <t>Products have to be transported in the most efficient time.</t>
+  </si>
+  <si>
+    <t>Passing objects between robots in simulation.</t>
+  </si>
+  <si>
+    <t>Physical objects are not allowed to fall off the robot.</t>
   </si>
 </sst>
 </file>
@@ -468,147 +468,147 @@
   <dimension ref="B2:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
